--- a/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
+++ b/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EvelineDB\Dropbox\Projeto EPS-WRI\elec_Eveline\Apil 2020\variables corrected\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regisrathmann/Documents/WRI/Produtos/Produto 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E252795-D118-44F6-BFCE-ACC8BF1A2534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{056BAF49-D341-4641-BAE4-FEFD16E5B63E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38680" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
     <sheet name="EUA model data" sheetId="9" r:id="rId4"/>
     <sheet name="BHRbEF" sheetId="3" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>BAU Heat Rate by Electricity Fuel</t>
   </si>
@@ -299,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,11 +313,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF287CA5"/>
-      <name val="AdvOT596495f2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -382,14 +376,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -412,6 +402,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,52 +421,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Variable and Fixed cost data"/>
-      <sheetName val="Capital cost data base"/>
-      <sheetName val="Capital cost EUA model"/>
-      <sheetName val="CCaMC-AFOaMCpUC"/>
-      <sheetName val="CCaMC-VOaMCpUC"/>
-      <sheetName val="CCaMC-BCCpUC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Biomass - steam turbine</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Municipal solid waste</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>Wind onshore</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>Wind offshore</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,21 +689,21 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="63.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.21875" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -763,222 +711,218 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="17" t="str">
+      <c r="C20" s="15" t="str">
         <f>'Koberle data  base'!A23</f>
         <v>Hydroelectric</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="17" t="str">
-        <f>'[1]Variable and Fixed cost data'!A45</f>
-        <v>Wind onshore</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="18" t="str">
-        <f>'[1]Variable and Fixed cost data'!A35</f>
-        <v>Biomass - steam turbine</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="17" t="str">
+      <c r="C25" s="15" t="str">
         <f>C18</f>
         <v xml:space="preserve">Domestic coal </v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="17" t="str">
-        <f>'[1]Variable and Fixed cost data'!A46</f>
-        <v>Wind offshore</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="17" t="str">
-        <f>'[1]Variable and Fixed cost data'!A36</f>
-        <v>Municipal solid waste</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>83</v>
       </c>
@@ -993,22 +937,22 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1016,16 +960,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2010</v>
       </c>
@@ -1033,12 +977,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1049,7 +993,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1060,7 +1004,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1071,7 +1015,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1082,7 +1026,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1093,7 +1037,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1104,7 +1048,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1115,12 +1059,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1131,7 +1075,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1142,7 +1086,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1153,7 +1097,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1164,43 +1108,43 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1211,7 +1155,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1222,7 +1166,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1233,7 +1177,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1244,7 +1188,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1255,7 +1199,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1266,12 +1210,12 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1282,7 +1226,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1293,68 +1237,68 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -1378,17 +1322,17 @@
   <dimension ref="B3:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1416,36 +1360,36 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="2" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.6" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:4" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1459,7 +1403,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1473,7 +1417,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1487,7 +1431,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1514,18 +1458,18 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -1539,7 +1483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1555,7 +1499,7 @@
         <v>1448275.8620689656</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1571,7 +1515,7 @@
         <v>1310344.8275862071</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1582,68 +1526,68 @@
       <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <f>'EUA model data'!D3</f>
         <v>10450000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>0</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>0</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1659,21 +1603,21 @@
         <v>965517.24137931049</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1684,12 +1628,12 @@
       <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <f>'EUA model data'!D4</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1700,12 +1644,12 @@
       <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <f>'Koberle data  base'!C19/'Conversion units'!E4</f>
         <v>1896551.7241379314</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1721,21 +1665,21 @@
         <v>1448275.8620689656</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>0</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1751,7 +1695,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1767,7 +1711,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>

--- a/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
+++ b/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/regisrathmann/Documents/WRI/Produtos/Produto 6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\Brazil\Models\eps-brazil\InputData\elec\BHRbEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{056BAF49-D341-4641-BAE4-FEFD16E5B63E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38680" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38685" windowHeight="24840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="EUA model data" sheetId="9" r:id="rId4"/>
     <sheet name="BHRbEF" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
   <si>
     <t>BAU Heat Rate by Electricity Fuel</t>
   </si>
@@ -234,9 +233,6 @@
     <t>Conversion</t>
   </si>
   <si>
-    <t>BTU</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
@@ -292,12 +288,18 @@
   </si>
   <si>
     <t>EUA model data</t>
+  </si>
+  <si>
+    <t>btu/kWh</t>
+  </si>
+  <si>
+    <t>Btu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,25 +687,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -711,81 +713,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="16" t="s">
         <v>6</v>
@@ -794,7 +796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="16" t="s">
         <v>8</v>
@@ -804,25 +806,25 @@
         <v>Hydroelectric</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="16" t="s">
         <v>12</v>
@@ -831,7 +833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="16" t="s">
         <v>15</v>
@@ -840,7 +842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="16" t="s">
         <v>17</v>
@@ -850,7 +852,7 @@
         <v xml:space="preserve">Domestic coal </v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="16" t="s">
         <v>18</v>
@@ -859,7 +861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="16" t="s">
         <v>22</v>
@@ -868,63 +870,71 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>83</v>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41">
+        <v>3412.4</v>
       </c>
     </row>
   </sheetData>
@@ -933,26 +943,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00B878E-86A8-4298-990F-9C09179391C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -960,7 +970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -969,7 +979,7 @@
       </c>
       <c r="C5" s="18"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2010</v>
       </c>
@@ -977,12 +987,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -993,7 +1003,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1025,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1026,7 +1036,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1037,7 +1047,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1048,7 +1058,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1059,12 +1069,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1075,7 +1085,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1086,7 +1096,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1097,7 +1107,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1108,43 +1118,43 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1155,7 +1165,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1166,7 +1176,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1177,7 +1187,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1188,7 +1198,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1199,7 +1209,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1210,12 +1220,12 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1226,7 +1236,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1237,68 +1247,68 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -1318,36 +1328,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AD0BE7-2A37-4E50-A52E-3E9ECD873E36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
       <c r="E4">
-        <f>2.9*10^-7</f>
-        <v>2.8999999999999998E-7</v>
+        <f>About!B41*10^3</f>
+        <v>3412400</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1356,26 +1369,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181FF1AF-3F46-4E2E-B06B-3FA567A0901B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -1383,13 +1396,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1403,7 +1416,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1417,7 +1430,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +1444,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1451,25 +1464,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -1477,45 +1490,45 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5">
-        <f>'Koberle data  base'!B9/'Conversion units'!E4</f>
-        <v>1310344.8275862071</v>
+        <f>'Conversion units'!E4/'Koberle data  base'!B9</f>
+        <v>8980000</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <f>'Koberle data  base'!C9/'Conversion units'!E4</f>
-        <v>1448275.8620689656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <f>'Conversion units'!E4/'Koberle data  base'!C9</f>
+        <v>8124761.9047619049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <f>'Koberle data  base'!B18/'Conversion units'!E4</f>
-        <v>1206896.551724138</v>
+        <f>'Conversion units'!E4/'Koberle data  base'!B18</f>
+        <v>9749714.2857142854</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <f>'Koberle data  base'!C18/'Conversion units'!E4</f>
-        <v>1310344.8275862071</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <f>'Conversion units'!E4/'Koberle data  base'!C18</f>
+        <v>8980000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1544,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1545,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1559,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1573,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1587,23 +1600,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="5">
         <f>'Koberle data  base'!B35/'Conversion units'!E4</f>
-        <v>965517.24137931049</v>
+        <v>8.205368655491737E-8</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
       </c>
       <c r="D9" s="5">
         <f>'Koberle data  base'!C35/'Conversion units'!E4</f>
-        <v>965517.24137931049</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.205368655491737E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1617,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1633,39 +1646,39 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5">
         <f>'Koberle data  base'!B19/'Conversion units'!E4</f>
-        <v>1724137.931034483</v>
+        <v>1.4652444027663813E-7</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="5">
         <f>'Koberle data  base'!C19/'Conversion units'!E4</f>
-        <v>1896551.7241379314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.6117688430430198E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="5">
         <f>B2</f>
-        <v>1310344.8275862071</v>
+        <v>8980000</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
       </c>
       <c r="D13" s="5">
         <f>D2</f>
-        <v>1448275.8620689656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8124761.9047619049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1679,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1695,7 +1708,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1711,20 +1724,20 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="5">
         <f>'Koberle data  base'!B36/'Conversion units'!E4</f>
-        <v>965517.24137931049</v>
+        <v>8.205368655491737E-8</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" s="5">
         <f>'Koberle data  base'!C36/'Conversion units'!E4</f>
-        <v>965517.24137931049</v>
+        <v>8.205368655491737E-8</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
+++ b/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\Brazil\Models\eps-brazil\InputData\elec\BHRbEF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-brazil\InputData\elec\BHRbEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38685" windowHeight="24840" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38685" windowHeight="24840"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="EUA model data" sheetId="9" r:id="rId4"/>
     <sheet name="BHRbEF" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -690,22 +690,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="63.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="2" max="2" width="63.73046875" customWidth="1"/>
+    <col min="3" max="3" width="51.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -713,63 +713,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="13" t="s">
         <v>74</v>
@@ -778,7 +778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="14" t="s">
         <v>19</v>
@@ -787,7 +787,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="16" t="s">
         <v>6</v>
@@ -796,7 +796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="16" t="s">
         <v>8</v>
@@ -806,7 +806,7 @@
         <v>Hydroelectric</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="16" t="s">
         <v>76</v>
@@ -815,7 +815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="16" t="s">
         <v>10</v>
@@ -824,7 +824,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="16" t="s">
         <v>12</v>
@@ -833,7 +833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="16" t="s">
         <v>15</v>
@@ -842,7 +842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="16" t="s">
         <v>17</v>
@@ -852,7 +852,7 @@
         <v xml:space="preserve">Domestic coal </v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="16" t="s">
         <v>18</v>
@@ -861,7 +861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="16" t="s">
         <v>22</v>
@@ -870,66 +870,66 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B37" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -946,23 +946,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="B11:C11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -970,7 +970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -979,7 +979,7 @@
       </c>
       <c r="C5" s="18"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>2010</v>
       </c>
@@ -987,12 +987,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1069,12 +1069,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1118,43 +1118,43 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1220,12 +1220,12 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1247,68 +1247,68 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>62</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -1335,17 +1335,17 @@
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1376,19 +1376,19 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.73046875" customWidth="1"/>
+    <col min="2" max="3" width="17.1328125" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1470,19 +1470,19 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1512,23 +1512,23 @@
         <v>8124761.9047619049</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <f>'Conversion units'!E4/'Koberle data  base'!B18</f>
-        <v>9749714.2857142854</v>
+        <f>'Conversion units'!E4/'Koberle data  base'!B19</f>
+        <v>6824800</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <f>'Conversion units'!E4/'Koberle data  base'!C18</f>
-        <v>8980000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f>'Conversion units'!E4/'Koberle data  base'!C19</f>
+        <v>6204363.6363636358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>8.205368655491737E-8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1646,23 +1646,23 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="5">
-        <f>'Koberle data  base'!B19/'Conversion units'!E4</f>
-        <v>1.4652444027663813E-7</v>
+        <f>'Conversion units'!E4/'Koberle data  base'!B18</f>
+        <v>9749714.2857142854</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="5">
-        <f>'Koberle data  base'!C19/'Conversion units'!E4</f>
-        <v>1.6117688430430198E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <f>'Conversion units'!E4/'Koberle data  base'!C18</f>
+        <v>8980000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>8124761.9047619049</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1724,20 +1724,20 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="5">
-        <f>'Koberle data  base'!B36/'Conversion units'!E4</f>
-        <v>8.205368655491737E-8</v>
+        <f>'Conversion units'!E4/'Koberle data  base'!B36</f>
+        <v>12187142.857142856</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" s="5">
-        <f>'Koberle data  base'!C36/'Conversion units'!E4</f>
-        <v>8.205368655491737E-8</v>
+        <f>'Conversion units'!E4/'Koberle data  base'!C36</f>
+        <v>12187142.857142856</v>
       </c>
     </row>
   </sheetData>
